--- a/Data/Test/dataset22/input_data.xlsx
+++ b/Data/Test/dataset22/input_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A9889B-0DB0-45E7-B115-0CC373302838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69050A4B-5AA4-48DF-8694-DB4C76A2A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -568,20 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="5" width="8.796875" style="1"/>
-    <col min="6" max="8" width="8.796875" style="2"/>
-    <col min="9" max="10" width="8.796875" style="3"/>
+    <col min="6" max="9" width="8.796875" style="2"/>
+    <col min="10" max="11" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,14 +606,17 @@
       <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
       <c r="J1" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -638,14 +641,17 @@
       <c r="H2" s="2">
         <v>25</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>25</v>
       </c>
       <c r="J2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -670,14 +676,17 @@
       <c r="H3" s="2">
         <v>90</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>90</v>
       </c>
       <c r="J3" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -702,14 +711,17 @@
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -734,14 +746,17 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>10</v>
       </c>
       <c r="J5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -766,14 +781,17 @@
       <c r="H6" s="2">
         <v>24</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>24</v>
       </c>
       <c r="J6" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -798,14 +816,17 @@
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>16</v>
       </c>
       <c r="J7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -830,14 +851,17 @@
       <c r="H8" s="2">
         <v>20</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>20</v>
       </c>
       <c r="J8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -862,14 +886,17 @@
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -894,14 +921,17 @@
       <c r="H10" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="3">
-        <v>12</v>
+      <c r="I10" s="2">
+        <v>20</v>
       </c>
       <c r="J10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -926,14 +956,17 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -958,14 +991,17 @@
       <c r="H12" s="2">
         <v>20</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>20</v>
       </c>
       <c r="J12" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -990,14 +1026,17 @@
       <c r="H13" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <v>3</v>
+      <c r="I13" s="2">
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1022,14 +1061,17 @@
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>6</v>
+      <c r="I14" s="2">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1054,14 +1096,17 @@
       <c r="H15" s="2">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1086,14 +1131,17 @@
       <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1118,14 +1166,17 @@
       <c r="H17" s="2">
         <v>20</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>20</v>
       </c>
       <c r="J17" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1153,14 +1204,18 @@
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="J18" s="3">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1185,14 +1240,17 @@
       <c r="H19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1217,14 +1275,17 @@
       <c r="H20" s="2">
         <v>0.9</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>0.9</v>
       </c>
       <c r="J20" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1249,14 +1310,17 @@
       <c r="H21" s="2">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1281,14 +1345,17 @@
       <c r="H22" s="2">
         <v>25</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>25</v>
       </c>
       <c r="J22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1313,14 +1380,17 @@
       <c r="H23" s="2">
         <v>20</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>20</v>
       </c>
       <c r="J23" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1345,14 +1415,17 @@
       <c r="H24" s="2">
         <v>60</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>60</v>
       </c>
       <c r="J24" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1377,14 +1450,17 @@
       <c r="H25" s="2">
         <v>6000000</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>6000000</v>
       </c>
       <c r="J25" s="3">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1409,14 +1485,17 @@
       <c r="H26" s="2">
         <v>9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>9300</v>
       </c>
       <c r="J26" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1441,14 +1520,17 @@
       <c r="H27" s="2">
         <v>7.5</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>7.5</v>
       </c>
       <c r="J27" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1473,14 +1555,17 @@
       <c r="H28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>4</v>
       </c>
       <c r="J28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1505,14 +1590,17 @@
       <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1537,14 +1625,17 @@
       <c r="H30" s="2">
         <v>4200</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>4200</v>
       </c>
       <c r="J30" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1569,14 +1660,17 @@
       <c r="H31" s="2">
         <v>1100</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>1100</v>
       </c>
       <c r="J31" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1601,14 +1695,17 @@
       <c r="H32" s="2">
         <v>10</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>10</v>
       </c>
       <c r="J32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1633,14 +1730,17 @@
       <c r="H33" s="2">
         <v>11</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>11</v>
       </c>
       <c r="J33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1665,14 +1765,17 @@
       <c r="H34" s="2">
         <v>6</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>6</v>
       </c>
       <c r="J34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1697,14 +1800,17 @@
       <c r="H35" s="2">
         <v>7</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>7</v>
       </c>
       <c r="J35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1729,14 +1835,17 @@
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>2</v>
       </c>
       <c r="J36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1761,14 +1870,17 @@
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>3</v>
       </c>
       <c r="J37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1793,10 +1905,13 @@
       <c r="H38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Data/Test/dataset22/input_data.xlsx
+++ b/Data/Test/dataset22/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69050A4B-5AA4-48DF-8694-DB4C76A2A9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DDC8D-5085-42FB-B1A4-4B7B41AAF294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -568,20 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="5" width="8.796875" style="1"/>
-    <col min="6" max="9" width="8.796875" style="2"/>
-    <col min="10" max="11" width="8.796875" style="3"/>
+    <col min="5" max="6" width="8.75" style="1"/>
+    <col min="7" max="9" width="8.75" style="2"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="8.75" style="2"/>
+    <col min="12" max="13" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,13 +593,13 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>3</v>
       </c>
       <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
       <c r="G1" s="2">
@@ -609,14 +611,20 @@
       <c r="I1" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K1" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -626,13 +634,13 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>25</v>
       </c>
       <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
       <c r="G2" s="2">
@@ -644,14 +652,20 @@
       <c r="I2" s="2">
         <v>25</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>25</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="3">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -661,13 +675,13 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>90</v>
       </c>
       <c r="E3" s="1">
         <v>90</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>90</v>
       </c>
       <c r="G3" s="2">
@@ -679,14 +693,20 @@
       <c r="I3" s="2">
         <v>90</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>90</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="3">
+        <v>90</v>
+      </c>
+      <c r="M3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -696,13 +716,13 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="2">
@@ -714,14 +734,20 @@
       <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -731,13 +757,13 @@
       <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>10</v>
+      <c r="D5">
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="2">
@@ -749,14 +775,20 @@
       <c r="I5" s="2">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -766,13 +798,13 @@
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="1">
-        <v>24</v>
+      <c r="D6">
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
       <c r="G6" s="2">
@@ -784,14 +816,20 @@
       <c r="I6" s="2">
         <v>24</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>24</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="3">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -801,13 +839,13 @@
       <c r="C7">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
-        <v>16</v>
+      <c r="D7">
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>16</v>
       </c>
       <c r="G7" s="2">
@@ -819,14 +857,20 @@
       <c r="I7" s="2">
         <v>16</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>16</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="3">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -836,13 +880,13 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>20</v>
       </c>
       <c r="G8" s="2">
@@ -854,14 +898,20 @@
       <c r="I8" s="2">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
-        <v>20</v>
-      </c>
-      <c r="K8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J8" s="2">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>20</v>
+      </c>
+      <c r="L8" s="3">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -871,13 +921,13 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="2">
@@ -889,14 +939,20 @@
       <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J9" s="2">
+        <v>3</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -906,14 +962,14 @@
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>12</v>
+      <c r="D10">
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>12</v>
       </c>
-      <c r="F10" s="2">
-        <v>20</v>
+      <c r="F10" s="1">
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
@@ -924,14 +980,20 @@
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3">
         <v>12</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -941,13 +1003,13 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2">
@@ -959,14 +1021,20 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -976,13 +1044,13 @@
       <c r="C12">
         <v>32</v>
       </c>
-      <c r="D12" s="1">
-        <v>20</v>
+      <c r="D12">
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>20</v>
       </c>
       <c r="G12" s="2">
@@ -994,14 +1062,20 @@
       <c r="I12" s="2">
         <v>20</v>
       </c>
-      <c r="J12" s="3">
-        <v>20</v>
-      </c>
-      <c r="K12" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J12" s="2">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1011,14 +1085,14 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
-        <v>2</v>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -1029,14 +1103,20 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1046,14 +1126,14 @@
       <c r="C14">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
-        <v>12</v>
+      <c r="D14">
+        <v>16</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
-        <v>4</v>
+      <c r="F14" s="1">
+        <v>12</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -1064,14 +1144,20 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
+        <v>4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1081,13 +1167,13 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>8</v>
+      <c r="D15">
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>8</v>
       </c>
       <c r="G15" s="2">
@@ -1099,14 +1185,20 @@
       <c r="I15" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="3">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1116,13 +1208,13 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="2">
@@ -1134,14 +1226,20 @@
       <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1151,13 +1249,13 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>20</v>
       </c>
       <c r="G17" s="2">
@@ -1169,14 +1267,20 @@
       <c r="I17" s="2">
         <v>20</v>
       </c>
-      <c r="J17" s="3">
-        <v>20</v>
-      </c>
-      <c r="K17" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J17" s="2">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1186,14 +1290,13 @@
       <c r="C18">
         <v>-0.1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>-0.1</v>
       </c>
       <c r="E18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="F18" s="2">
-        <f>-0.1</f>
+      <c r="F18" s="1">
         <v>-0.1</v>
       </c>
       <c r="G18" s="2">
@@ -1208,14 +1311,22 @@
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1225,13 +1336,13 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" s="1">
         <v>10</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>10</v>
       </c>
       <c r="G19" s="2">
@@ -1243,14 +1354,20 @@
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="3">
-        <v>10</v>
-      </c>
-      <c r="K19" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1260,13 +1377,13 @@
       <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20" s="1">
         <v>0.9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.9</v>
       </c>
       <c r="G20" s="2">
@@ -1278,14 +1395,20 @@
       <c r="I20" s="2">
         <v>0.9</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>0.9</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1295,13 +1418,13 @@
       <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>100</v>
       </c>
       <c r="G21" s="2">
@@ -1313,14 +1436,20 @@
       <c r="I21" s="2">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1330,13 +1459,13 @@
       <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>25</v>
       </c>
       <c r="E22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>25</v>
       </c>
       <c r="G22" s="2">
@@ -1348,14 +1477,20 @@
       <c r="I22" s="2">
         <v>25</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>25</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="3">
+        <v>25</v>
+      </c>
+      <c r="M22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1365,13 +1500,13 @@
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="2">
@@ -1383,14 +1518,20 @@
       <c r="I23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="3">
-        <v>20</v>
-      </c>
-      <c r="K23" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J23" s="2">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1400,13 +1541,13 @@
       <c r="C24">
         <v>60</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>60</v>
       </c>
       <c r="E24" s="1">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>60</v>
       </c>
       <c r="G24" s="2">
@@ -1418,14 +1559,20 @@
       <c r="I24" s="2">
         <v>60</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>60</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="3">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1435,13 +1582,13 @@
       <c r="C25">
         <v>6000000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>6000000</v>
       </c>
       <c r="E25" s="1">
         <v>6000000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>6000000</v>
       </c>
       <c r="G25" s="2">
@@ -1453,14 +1600,20 @@
       <c r="I25" s="2">
         <v>6000000</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>6000000</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1470,13 +1623,13 @@
       <c r="C26">
         <v>9300</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>9300</v>
       </c>
       <c r="E26" s="1">
         <v>9300</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>9300</v>
       </c>
       <c r="G26" s="2">
@@ -1488,14 +1641,20 @@
       <c r="I26" s="2">
         <v>9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>9300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1505,13 +1664,13 @@
       <c r="C27">
         <v>7.5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>7.5</v>
       </c>
       <c r="E27" s="1">
         <v>7.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>7.5</v>
       </c>
       <c r="G27" s="2">
@@ -1523,14 +1682,20 @@
       <c r="I27" s="2">
         <v>7.5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>7.5</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1540,13 +1705,13 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>4</v>
       </c>
       <c r="G28" s="2">
@@ -1558,14 +1723,20 @@
       <c r="I28" s="2">
         <v>4</v>
       </c>
-      <c r="J28" s="3">
-        <v>4</v>
-      </c>
-      <c r="K28" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4</v>
+      </c>
+      <c r="L28" s="3">
+        <v>4</v>
+      </c>
+      <c r="M28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1575,13 +1746,13 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>4</v>
       </c>
       <c r="G29" s="2">
@@ -1593,14 +1764,20 @@
       <c r="I29" s="2">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1610,13 +1787,13 @@
       <c r="C30">
         <v>4200</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>4200</v>
       </c>
       <c r="E30" s="1">
         <v>4200</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>4200</v>
       </c>
       <c r="G30" s="2">
@@ -1628,14 +1805,20 @@
       <c r="I30" s="2">
         <v>4200</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>4200</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1645,13 +1828,13 @@
       <c r="C31">
         <v>1100</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>1100</v>
       </c>
       <c r="E31" s="1">
         <v>1100</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>1100</v>
       </c>
       <c r="G31" s="2">
@@ -1663,14 +1846,20 @@
       <c r="I31" s="2">
         <v>1100</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>1100</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1680,13 +1869,13 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" s="1">
         <v>10</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>10</v>
       </c>
       <c r="G32" s="2">
@@ -1698,14 +1887,20 @@
       <c r="I32" s="2">
         <v>10</v>
       </c>
-      <c r="J32" s="3">
-        <v>10</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J32" s="2">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1715,13 +1910,13 @@
       <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>11</v>
       </c>
       <c r="E33" s="1">
         <v>11</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>11</v>
       </c>
       <c r="G33" s="2">
@@ -1733,14 +1928,20 @@
       <c r="I33" s="2">
         <v>11</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>11</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" s="3">
+        <v>11</v>
+      </c>
+      <c r="M33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1750,13 +1951,13 @@
       <c r="C34">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>6</v>
       </c>
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="G34" s="2">
@@ -1768,14 +1969,20 @@
       <c r="I34" s="2">
         <v>6</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>6</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" s="3">
+        <v>6</v>
+      </c>
+      <c r="M34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1785,13 +1992,13 @@
       <c r="C35">
         <v>7</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>7</v>
       </c>
       <c r="E35" s="1">
         <v>7</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>7</v>
       </c>
       <c r="G35" s="2">
@@ -1803,14 +2010,20 @@
       <c r="I35" s="2">
         <v>7</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>7</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" s="3">
+        <v>7</v>
+      </c>
+      <c r="M35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1820,13 +2033,13 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="2">
@@ -1838,14 +2051,20 @@
       <c r="I36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="3">
-        <v>2</v>
-      </c>
-      <c r="K36" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1855,13 +2074,13 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" s="1">
         <v>3</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="2">
@@ -1873,14 +2092,20 @@
       <c r="I37" s="2">
         <v>3</v>
       </c>
-      <c r="J37" s="3">
-        <v>3</v>
-      </c>
-      <c r="K37" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="J37" s="2">
+        <v>3</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1890,13 +2115,13 @@
       <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>39</v>
+      <c r="D38" t="s">
+        <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1908,10 +2133,16 @@
       <c r="I38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1929,9 +2160,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1945,7 +2176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +2190,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1973,7 +2204,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +2218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2001,7 +2232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2015,7 +2246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2029,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2043,7 +2274,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2057,7 +2288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2071,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2085,7 +2316,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2099,7 +2330,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +2344,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2127,7 +2358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2141,7 +2372,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2169,9 +2400,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2188,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2436,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2222,7 +2453,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2239,7 +2470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2256,7 +2487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2273,7 +2504,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2290,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2307,7 +2538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2324,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2341,7 +2572,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2358,7 +2589,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2375,7 +2606,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2392,7 +2623,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2409,7 +2640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2657,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2457,9 +2688,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2492,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2514,7 +2745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2525,7 +2756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2550,9 +2781,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2560,7 +2791,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2568,7 +2799,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2576,7 +2807,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2584,7 +2815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
